--- a/biology/Biochimie/ADN_ligase/ADN_ligase.xlsx
+++ b/biology/Biochimie/ADN_ligase/ADN_ligase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie moléculaire, les ADN ligases  (EC 6.5.1.1) sont des enzymes de la classe des ligases qui catalysent la formation d'une liaison phosphodiester entre deux segments d'ADN. Les ADN ligases interviennent dans plusieurs processus cellulaires essentiels du métabolisme de l'ADN : dans la réplication de l'ADN, pour la suture des fragments d'Okazaki et dans la réparation de l'ADN et dans la recombinaison homologue.
 L'ADN ligase permet de former une liaison entre le groupement 5'-phosphate d'un segment d'ADN et le groupement 3'-OH du segment précédent sur le même brin. En général, ces deux segments sont associés au brin d'ADN complémentaire qui sert de matrice pour la suture des brins. Certaines ADN ligases (ADN ligase IV) sont capables de faire de la suture d'ADN présentant des cassures double-brin.
@@ -514,9 +526,11 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ADN ligases catalysent la suture de deux brins d'ADN en trois étapes successives de transfert de nucléotide, avec deux intermédiaires covalents[1]. Tout d'abord, l'ATP (ou le NAD+) réagit avec une lysine du site actif de l'enzyme, avec transfert d'un groupement adénylate sur le groupement NH2 de la lysine :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ADN ligases catalysent la suture de deux brins d'ADN en trois étapes successives de transfert de nucléotide, avec deux intermédiaires covalents. Tout d'abord, l'ATP (ou le NAD+) réagit avec une lysine du site actif de l'enzyme, avec transfert d'un groupement adénylate sur le groupement NH2 de la lysine :
 (i) Appp + NH2-ligase → Ap-NH-ligase + PPi
 L'adénylate est ensuite transféré par l'enzyme sur le groupement 5'-phosphate du segment d'ADN à suturer. On a un deuxième intermédiaire covalent, ADN-adénylate :
 (ii) Ap-NH-ligase  + 5'p-ADN → App-ADN + ligase-NH2
@@ -550,7 +564,9 @@
           <t>Fonctions cellulaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des ADN ligases interviennent dans un grand nombre de mécanismes biologiques, souvent à la dernière étape de processus impliquant une synthèse d'ADN. Les ADN polymérases qui synthétisent l'ADN peuvent allonger un brin, mais sont incapables de relier des segments entre eux par une liaison phosphodiester, cette étape nécessitant l'action d'une ligase. De nombreux processus cellulaires font intervenir la synthèse d'un brin d'ADN :
 La réplication. Sur le brin lent (lagging strand), la synthèse est discontinue et passe par la production de fragments d'Okazaki qui doivent être suturés les uns aux autres pour faire un brin d'ADN continu.
